--- a/STD BAB III Identifikasi dan Rencana Pengujian.xlsx
+++ b/STD BAB III Identifikasi dan Rencana Pengujian.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\D3TI-2B\RPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 4\Rekayasa Perangkat Lunak\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9D799-FA99-4AC7-9FBA-57CA0CCCD0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Kelas Uji</t>
   </si>
@@ -50,37 +51,52 @@
     <t>STD</t>
   </si>
   <si>
-    <t>Login Pegawai IT</t>
-  </si>
-  <si>
-    <t>Username dan password yang di inputkan sesuai dengan data</t>
-  </si>
-  <si>
-    <t>SRS 2.2.3</t>
-  </si>
-  <si>
-    <t>STD 1.0</t>
-  </si>
-  <si>
-    <t>Sistem</t>
-  </si>
-  <si>
-    <t>Black Box</t>
-  </si>
-  <si>
-    <t>Hilmy</t>
-  </si>
-  <si>
     <t>Black box : gampangnya (bagian proses backend)</t>
   </si>
   <si>
     <t>White box : gampangnya (fitur interaktif pada produk seperti button)</t>
+  </si>
+  <si>
+    <t>Pengujian Login User</t>
+  </si>
+  <si>
+    <t>Pengujian Pengaturan Akun User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengujian Pemesanan Jasa </t>
+  </si>
+  <si>
+    <t>Pengujian Transaksi Pembayaran</t>
+  </si>
+  <si>
+    <t>Pengujian Riwayat Transaksi User</t>
+  </si>
+  <si>
+    <t>Pengujian Membuat Akun Toko</t>
+  </si>
+  <si>
+    <t>Pengujian Pengaturan Toko</t>
+  </si>
+  <si>
+    <t>Pengujian Konfirmasi Pembayaran</t>
+  </si>
+  <si>
+    <t>Pengujian Pemantauan Pesanan</t>
+  </si>
+  <si>
+    <t>Rinda Dwi Febriyani</t>
+  </si>
+  <si>
+    <t>Andini Aprilian</t>
+  </si>
+  <si>
+    <t>Mardhiyatus Sholihah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,18 +143,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,237 +441,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="4" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="62.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="20.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="24">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/STD BAB III Identifikasi dan Rencana Pengujian.xlsx
+++ b/STD BAB III Identifikasi dan Rencana Pengujian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 4\Rekayasa Perangkat Lunak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9D799-FA99-4AC7-9FBA-57CA0CCCD0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466DC0B-B4D7-459B-88F8-D089D6A0EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Kelas Uji</t>
   </si>
@@ -91,13 +91,127 @@
   </si>
   <si>
     <t>Mardhiyatus Sholihah</t>
+  </si>
+  <si>
+    <t>STD 1.0</t>
+  </si>
+  <si>
+    <t>STD 1.1</t>
+  </si>
+  <si>
+    <t>STD 1.2</t>
+  </si>
+  <si>
+    <t>Email dan password yang diinputkan sesuai dengan data yang ada</t>
+  </si>
+  <si>
+    <t>Email dan password yang diinputkan tidak ada data yang sesuai</t>
+  </si>
+  <si>
+    <t>Email atau password yang diinputkan ada yangn tidak sesuai</t>
+  </si>
+  <si>
+    <t>Menambahkan data informasi identitas user</t>
+  </si>
+  <si>
+    <t>Mengedit data informasi identitas yang sudah ada</t>
+  </si>
+  <si>
+    <t>Melakukan vallidasi input password saat mengubah kata sandi</t>
+  </si>
+  <si>
+    <t>Menambahkan data pemesanan baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validasi input pemesanan sesuai dengan data yang disediakan dan terhubung berdasarkan toko yang menyediakannya </t>
+  </si>
+  <si>
+    <t>Menambahkan data transaksi pembeli</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Melakukan vallidasi berdasarkan input saat pemesanan jasa</t>
+  </si>
+  <si>
+    <t>STD 1.3</t>
+  </si>
+  <si>
+    <t>STD 1.4</t>
+  </si>
+  <si>
+    <t>STD 1.5</t>
+  </si>
+  <si>
+    <t>STD 1.6</t>
+  </si>
+  <si>
+    <t>STD 1.7</t>
+  </si>
+  <si>
+    <t>STD 1.8</t>
+  </si>
+  <si>
+    <t>STD 1.9</t>
+  </si>
+  <si>
+    <t>STD 1.10</t>
+  </si>
+  <si>
+    <t>STD 1.11</t>
+  </si>
+  <si>
+    <t>STD 1.12</t>
+  </si>
+  <si>
+    <t>STD 1.13</t>
+  </si>
+  <si>
+    <t>STD 1.14</t>
+  </si>
+  <si>
+    <t>STD 1.15</t>
+  </si>
+  <si>
+    <t>STD 1.16</t>
+  </si>
+  <si>
+    <t>STD 1.17</t>
+  </si>
+  <si>
+    <t>STD 1.18</t>
+  </si>
+  <si>
+    <t>STD 1.19</t>
+  </si>
+  <si>
+    <t>STD 1.20</t>
+  </si>
+  <si>
+    <t>STD 1.21</t>
+  </si>
+  <si>
+    <t>STD 1.22</t>
+  </si>
+  <si>
+    <t>STD 1.23</t>
+  </si>
+  <si>
+    <t>STD 1.24</t>
+  </si>
+  <si>
+    <t>STD 1.25</t>
+  </si>
+  <si>
+    <t>STD 1.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +236,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -151,16 +283,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,15 +580,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="50.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="62.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.7265625" style="3" customWidth="1"/>
     <col min="6" max="8" width="20.7265625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="3"/>
@@ -473,265 +609,367 @@
     <row r="5" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="E25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="E26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="E28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="E29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="E32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="E34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="E35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -741,22 +979,8 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
